--- a/test_data/csv_case_data/login.xlsx
+++ b/test_data/csv_case_data/login.xlsx
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2020-07-29 10:19:58</t>
+          <t>2020-07-29 11:20:10</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020-07-29 10:19:58</t>
+          <t>2020-07-29 11:20:10</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2020-07-29 10:19:58</t>
+          <t>2020-07-29 11:20:10</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2020-07-29 10:19:59</t>
+          <t>2020-07-29 11:20:10</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2020-07-29 10:19:59</t>
+          <t>2020-07-29 11:20:11</t>
         </is>
       </c>
     </row>

--- a/test_data/csv_case_data/login.xlsx
+++ b/test_data/csv_case_data/login.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="home" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bbs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="home" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -28,6 +29,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <color rgb="FF00FF00"/>
       <sz val="11"/>
@@ -35,8 +37,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00FF00"/>
       <sz val="11"/>
     </font>
     <font>
@@ -44,11 +47,6 @@
       <charset val="134"/>
       <sz val="9"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -76,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -92,9 +90,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,7 +364,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -456,14 +451,14 @@
           <t>用户不存在/密码错误</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20 17:24:37</t>
+          <t>2020-11-26 10:17:09</t>
         </is>
       </c>
     </row>
@@ -493,14 +488,14 @@
           <t>用户不存在/密码错误</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20 17:24:38</t>
+          <t>2020-11-26 10:17:09</t>
         </is>
       </c>
     </row>
@@ -523,14 +518,14 @@
           <t>用户不存在/密码错误</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20 17:24:38</t>
+          <t>2020-11-26 10:17:10</t>
         </is>
       </c>
     </row>
@@ -555,14 +550,14 @@
           <t>用户不存在/密码错误</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20 17:24:38</t>
+          <t>2020-11-26 10:17:10</t>
         </is>
       </c>
     </row>
@@ -595,7 +590,7 @@
           <t>操作成功</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -603,7 +598,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20 17:24:39</t>
+          <t>2020-11-26 10:17:10</t>
         </is>
       </c>
     </row>
@@ -614,6 +609,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="17.25" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>accessKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SecretKey</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>bucket</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>testter</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>testtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>111</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>存储空间：111存在！！！</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>空的accessKey</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>111</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>连接信息-accessKey不能为空</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>错误accessKey</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>111</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>系统异常！</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>空的SecretKey</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>111</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>连接信息-secretKey不能为空</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>错误SecretKey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>111</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>用户名或密码错误</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>不存在的空间</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no_exit_space</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>存储空间：no_exit_space不存在！！！</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>不规范的空间名称</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>不回规范的空间名称sadf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>请检查名称是否规范！！！</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2020-11-30 16:50:14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
